--- a/URS Doc/Gantt chart.xlsx
+++ b/URS Doc/Gantt chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexander\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FONTYS\Semester_2\PROJECT\mediabazaarproject\URS Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5491AA68-04A7-4081-9D4C-0FBC5AEB9CD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B326B0-883C-4788-8583-8CC2E2332F97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F2BDE62A-1975-47A9-A4B3-E14B1AC9084C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Task</t>
   </si>
@@ -44,19 +44,28 @@
     <t>Days to complete</t>
   </si>
   <si>
-    <t>Design phase</t>
-  </si>
-  <si>
     <t>Analysis phase</t>
   </si>
   <si>
-    <t>Implementation phase</t>
+    <t xml:space="preserve">Deployment phase </t>
   </si>
   <si>
-    <t xml:space="preserve">Testing phase </t>
+    <t>Create the C# application</t>
   </si>
   <si>
-    <t xml:space="preserve">Deployment phase </t>
+    <t>Create the website</t>
+  </si>
+  <si>
+    <t>Design the C# application</t>
+  </si>
+  <si>
+    <t>Design the website</t>
+  </si>
+  <si>
+    <t>Testing - C# application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing - website </t>
   </si>
 </sst>
 </file>
@@ -279,22 +288,31 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$6</c:f>
+              <c:f>Лист1!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Analysis phase</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Design phase</c:v>
+                  <c:v>Design the C# application</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Implementation phase</c:v>
+                  <c:v>Design the website</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Testing phase </c:v>
+                  <c:v>Create the C# application</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Create the website</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Testing - C# application</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Testing - website </c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Deployment phase </c:v>
                 </c:pt>
               </c:strCache>
@@ -302,10 +320,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$6</c:f>
+              <c:f>Лист1!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>43871</c:v>
                 </c:pt>
@@ -313,13 +331,22 @@
                   <c:v>43881</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>43885</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>43906</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -357,22 +384,31 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$6</c:f>
+              <c:f>Лист1!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Analysis phase</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Design phase</c:v>
+                  <c:v>Design the C# application</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Implementation phase</c:v>
+                  <c:v>Design the website</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Testing phase </c:v>
+                  <c:v>Create the C# application</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Create the website</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Testing - C# application</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Testing - website </c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Deployment phase </c:v>
                 </c:pt>
               </c:strCache>
@@ -380,10 +416,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$6</c:f>
+              <c:f>Лист1!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>9</c:v>
                 </c:pt>
@@ -391,12 +427,21 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1154,16 +1199,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1371599</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>332013</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
+      <xdr:rowOff>157843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>517070</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>326570</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1488,15 +1533,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62620B91-D773-4EC5-A2DB-56C5AD8E50FB}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
   </cols>
@@ -1514,7 +1559,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>43871</v>
@@ -1525,7 +1570,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>43881</v>
@@ -1536,45 +1581,78 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43883</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <v>43885</v>
       </c>
-      <c r="C4">
-        <v>20</v>
+      <c r="C5">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="2">
+        <v>43890</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43897</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43900</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
         <v>43906</v>
       </c>
-      <c r="C5">
-        <v>6</v>
+      <c r="C9">
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>43913</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
+    <row r="18" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
